--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints1.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints1.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>3.747772211884546e-15</v>
+        <v>3.764030245646466e-15</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>3.733512514789106e-15</v>
+        <v>3.75110750911957e-15</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>3.714580787992702e-15</v>
+        <v>3.732519168562717e-15</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>3.691366648150529e-15</v>
+        <v>3.708765856049734e-15</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>3.664259711917703e-15</v>
+        <v>3.680348203654381e-15</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>3.633649595949369e-15</v>
+        <v>3.647766843450438e-15</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>3.599925916900626e-15</v>
+        <v>3.611522407511636e-15</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>3.563478291426702e-15</v>
+        <v>3.572115527911853e-15</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>3.524696336182697e-15</v>
+        <v>3.53004683672482e-15</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>3.4839696678237e-15</v>
+        <v>3.48581696602426e-15</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>3.441687903004962e-15</v>
+        <v>3.43992654788407e-15</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>3.398240658381571e-15</v>
+        <v>3.392876214377974e-15</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>3.354017550608613e-15</v>
+        <v>3.345166597579688e-15</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>3.309408196341346e-15</v>
+        <v>3.297298329563119e-15</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>3.264802212234854e-15</v>
+        <v>3.249772042401985e-15</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.220589214944281e-15</v>
+        <v>3.203088368170066e-15</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.177158821124713e-15</v>
+        <v>3.157747938941084e-15</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.134900647431406e-15</v>
+        <v>3.11425138678894e-15</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.094195259410337e-15</v>
+        <v>3.073084745892304e-15</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.055241207162306e-15</v>
+        <v>3.034440490565125e-15</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.018068471640973e-15</v>
+        <v>2.998239221841585e-15</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.982700676916636e-15</v>
+        <v>2.964391288187453e-15</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.949161447059637e-15</v>
+        <v>2.932807038068544e-15</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.917474406140283e-15</v>
+        <v>2.903396819950645e-15</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.887663178229002e-15</v>
+        <v>2.876070982299646e-15</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.859751387396098e-15</v>
+        <v>2.85073987358133e-15</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.833762657711883e-15</v>
+        <v>2.827313842261484e-15</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.809720613246771e-15</v>
+        <v>2.805703236805989e-15</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.787648878071073e-15</v>
+        <v>2.785818405680632e-15</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.767571076255134e-15</v>
+        <v>2.767569697351232e-15</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.749510831869277e-15</v>
+        <v>2.750867460283586e-15</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.733491768983896e-15</v>
+        <v>2.735622042943556e-15</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.719537511669311e-15</v>
+        <v>2.72174379379694e-15</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.707671683995854e-15</v>
+        <v>2.70914306130954e-15</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.697869636907862e-15</v>
+        <v>2.69770776283094e-15</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.689783641895214e-15</v>
+        <v>2.687175690094209e-15</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.682933371694413e-15</v>
+        <v>2.677223020052144e-15</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.67683809475743e-15</v>
+        <v>2.66752574179832e-15</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.671017079536214e-15</v>
+        <v>2.657759844426273e-15</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.664989594482719e-15</v>
+        <v>2.647601317029551e-15</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.658274908048891e-15</v>
+        <v>2.636726148701687e-15</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>2.650392288686706e-15</v>
+        <v>2.62481032853626e-15</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>2.640861004848109e-15</v>
+        <v>2.611529845626804e-15</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>2.629200324985043e-15</v>
+        <v>2.596560689066847e-15</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>2.614929517549491e-15</v>
+        <v>2.579578847949978e-15</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>2.597567850993396e-15</v>
+        <v>2.560260311369725e-15</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>2.576634593768715e-15</v>
+        <v>2.538281068419638e-15</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>2.551649014327368e-15</v>
+        <v>2.513317108193232e-15</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>2.522130381121377e-15</v>
+        <v>2.485044419784119e-15</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>2.487640973737606e-15</v>
+        <v>2.453165339803643e-15</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>2.448296022145687e-15</v>
+        <v>2.417720928081815e-15</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>2.404594363018222e-15</v>
+        <v>2.378987232073598e-15</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>2.357042549489528e-15</v>
+        <v>2.337245026140392e-15</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>2.306147134693906e-15</v>
+        <v>2.292775084643583e-15</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.252414671765857e-15</v>
+        <v>2.245858181944733e-15</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.196351713839685e-15</v>
+        <v>2.196775092405231e-15</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.138464814049754e-15</v>
+        <v>2.145806590386523e-15</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.079260525530358e-15</v>
+        <v>2.093233450249985e-15</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.019245401416017e-15</v>
+        <v>2.039336446357199e-15</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.958925994841022e-15</v>
+        <v>1.984396353069543e-15</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.898808858939664e-15</v>
+        <v>1.92869394474839e-15</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.839391107853293e-15</v>
+        <v>1.872506751711859e-15</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.780937717673044e-15</v>
+        <v>1.816032521835847e-15</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.72347284936047e-15</v>
+        <v>1.759386238369334e-15</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.667009488735283e-15</v>
+        <v>1.702679043828954e-15</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.611560621617411e-15</v>
+        <v>1.646022080731564e-15</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.557139233826563e-15</v>
+        <v>1.589526491593799e-15</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.503758311182452e-15</v>
+        <v>1.533303418932292e-15</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.451430839504999e-15</v>
+        <v>1.477464005263899e-15</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.400169804613918e-15</v>
+        <v>1.422119393105254e-15</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.349988192328925e-15</v>
+        <v>1.367380724972995e-15</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.300898988469934e-15</v>
+        <v>1.313359143383973e-15</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.252915178856662e-15</v>
+        <v>1.260165790854824e-15</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.20604974930889e-15</v>
+        <v>1.207911809902255e-15</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.160315685646341e-15</v>
+        <v>1.156708343042909e-15</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.115725973688919e-15</v>
+        <v>1.106666532793629e-15</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.072293599256344e-15</v>
+        <v>1.057897521671054e-15</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.030031548168345e-15</v>
+        <v>1.010512452191832e-15</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>9.889528062448157e-16</v>
+        <v>9.646224668727951e-16</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>9.490703593054807e-16</v>
+        <v>9.203387082305877e-16</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>9.103971931701232e-16</v>
+        <v>8.777723187819183e-16</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>8.729462936584774e-16</v>
+        <v>8.370344410434434e-16</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>8.367306465904238e-16</v>
+        <v>7.982362175319774e-16</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>8.017632377856949e-16</v>
+        <v>7.614887907641741e-16</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>7.680570530640299e-16</v>
+        <v>7.269033032566975e-16</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>7.356250782452995e-16</v>
+        <v>6.94590897526347e-16</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>7.044802991492409e-16</v>
+        <v>6.646627160897836e-16</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>6.746689112809788e-16</v>
+        <v>6.37217727555673e-16</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>6.464097388306639e-16</v>
+        <v>6.122916188208317e-16</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>6.19977522047681e-16</v>
+        <v>5.898995792389149e-16</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>5.956470298690765e-16</v>
+        <v>5.700567876471991e-16</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>5.736930312319086e-16</v>
+        <v>5.527784228829743e-16</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>5.543902950733198e-16</v>
+        <v>5.380796637835959e-16</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>5.380135903303646e-16</v>
+        <v>5.259756891863506e-16</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>5.248376859401127e-16</v>
+        <v>5.164816779285382e-16</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>5.151373508396843e-16</v>
+        <v>5.096128088474944e-16</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>5.091873539661445e-16</v>
+        <v>5.053842607805156e-16</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>5.072624642565783e-16</v>
+        <v>5.038112125649124e-16</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>5.096374506480765e-16</v>
+        <v>5.049088430379987e-16</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>5.165870820777183e-16</v>
+        <v>5.086923310370823e-16</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>7.391737756292338e-16</v>
+        <v>7.321090947522193e-16</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>9.865892854530076e-16</v>
+        <v>9.846776536080844e-16</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>9.437899691598613e-16</v>
+        <v>9.332088127804953e-16</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>9.296615075722375e-16</v>
+        <v>9.255345998841937e-16</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>9.241147257244917e-16</v>
+        <v>9.29296336861606e-16</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>9.149247612345587e-16</v>
+        <v>9.209522781489443e-16</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>9.858005455595054e-16</v>
+        <v>9.845151243164439e-16</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.284538135012706e-15</v>
+        <v>1.275849882453327e-15</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.752450290734893e-15</v>
+        <v>1.745435621301536e-15</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.936017795229204e-15</v>
+        <v>1.942953909046075e-15</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.012872289730099e-15</v>
+        <v>2.027862649137985e-15</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.08235265454515e-15</v>
+        <v>2.088200512111162e-15</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.03068117524285e-15</v>
+        <v>2.013705995838833e-15</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.893757852305159e-15</v>
+        <v>1.874241725855786e-15</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.787837451006863e-15</v>
+        <v>1.819807097643537e-15</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.737053571765563e-15</v>
+        <v>1.804084978790969e-15</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.731743555360189e-15</v>
+        <v>1.763810712934706e-15</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.760746268806509e-15</v>
+        <v>1.779065444632519e-15</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.717536003031229e-15</v>
+        <v>1.722718236850632e-15</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.635438321573239e-15</v>
+        <v>1.62334098664504e-15</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.577277221839634e-15</v>
+        <v>1.575008505103817e-15</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.509102436729082e-15</v>
+        <v>1.511200434990102e-15</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.441244452036993e-15</v>
+        <v>1.444765952229984e-15</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.386351058986189e-15</v>
+        <v>1.394721869667722e-15</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.340297648094837e-15</v>
+        <v>1.353863872313701e-15</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.297142611325977e-15</v>
+        <v>1.31214704100804e-15</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.251084684776218e-15</v>
+        <v>1.260281086014941e-15</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.197754570108548e-15</v>
+        <v>1.196675386429482e-15</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.133620126900077e-15</v>
+        <v>1.124240713592984e-15</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.055295941474261e-15</v>
+        <v>1.045934858913941e-15</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>9.646907710462626e-16</v>
+        <v>9.643428240030442e-16</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>8.705903731505486e-16</v>
+        <v>8.815653655133967e-16</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>7.822400751511418e-16</v>
+        <v>7.996708794231795e-16</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>7.078446310011189e-16</v>
+        <v>7.212250562149431e-16</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>6.487463359763711e-16</v>
+        <v>6.52073184861785e-16</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.035038886416057e-16</v>
+        <v>5.99358893704736e-16</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>5.700024312625277e-16</v>
+        <v>5.656823113610222e-16</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.447533103755438e-16</v>
+        <v>5.442591743238794e-16</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>5.241802849229478e-16</v>
+        <v>5.273477401421448e-16</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.063323638800905e-16</v>
+        <v>5.112042192222474e-16</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.907491086821254e-16</v>
+        <v>4.95751432242879e-16</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>4.77025247022671e-16</v>
+        <v>4.810479033721482e-16</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>4.647555065953634e-16</v>
+        <v>4.671521567781826e-16</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>4.535346150938206e-16</v>
+        <v>4.541227166290905e-16</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>4.429725806675725e-16</v>
+        <v>4.420126217858623e-16</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.328893292693408e-16</v>
+        <v>4.30799555791001e-16</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.232573113842345e-16</v>
+        <v>4.204064496384627e-16</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.140524109756573e-16</v>
+        <v>4.107550017880845e-16</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.052505120070137e-16</v>
+        <v>4.017669106997047e-16</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>3.968274984417203e-16</v>
+        <v>3.933638748331736e-16</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>3.887592542431817e-16</v>
+        <v>3.854675926483295e-16</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>3.810216633748061e-16</v>
+        <v>3.779997626050143e-16</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>3.735906097999988e-16</v>
+        <v>3.70882083163067e-16</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.66444467926967e-16</v>
+        <v>3.640459973692821e-16</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.595739498285722e-16</v>
+        <v>3.574712229587316e-16</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>3.529735811616218e-16</v>
+        <v>3.511523994188004e-16</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.466378886993827e-16</v>
+        <v>3.45084170605317e-16</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.405613992151126e-16</v>
+        <v>3.392611803741019e-16</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.347386394820723e-16</v>
+        <v>3.33678072580978e-16</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>3.291641362735203e-16</v>
+        <v>3.283294910817661e-16</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>3.238324163627224e-16</v>
+        <v>3.232100797322944e-16</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>3.187380065229369e-16</v>
+        <v>3.183144823883833e-16</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.138754335274224e-16</v>
+        <v>3.136373429058538e-16</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>3.092392241494442e-16</v>
+        <v>3.091733051405334e-16</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>3.048239051622608e-16</v>
+        <v>3.049170129482433e-16</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.006240033391332e-16</v>
+        <v>3.008631101848063e-16</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>2.966340454533203e-16</v>
+        <v>2.970062407060438e-16</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>2.928485582780867e-16</v>
+        <v>2.933410483677825e-16</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>2.892620685866912e-16</v>
+        <v>2.898621770258439e-16</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>2.858691031523933e-16</v>
+        <v>2.865642705360495e-16</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>2.826641887484568e-16</v>
+        <v>2.834419727542254e-16</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>2.79641852148141e-16</v>
+        <v>2.804899275361933e-16</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>2.767966201247068e-16</v>
+        <v>2.777027787377764e-16</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>2.741230194514137e-16</v>
+        <v>2.750751702147963e-16</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>2.71615576901525e-16</v>
+        <v>2.726017458230789e-16</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>2.692688192483004e-16</v>
+        <v>2.702771494184461e-16</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.670772732649997e-16</v>
+        <v>2.680960248567199e-16</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.650354657248857e-16</v>
+        <v>2.660530159937252e-16</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.631379234012183e-16</v>
+        <v>2.641427666852846e-16</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.613791730672581e-16</v>
+        <v>2.623599207872208e-16</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.597537414962655e-16</v>
+        <v>2.606991221553565e-16</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.582561554615026e-16</v>
+        <v>2.591550146455161e-16</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.568809417362296e-16</v>
+        <v>2.577222421135222e-16</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.556226270937073e-16</v>
+        <v>2.563954484151977e-16</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.54475738307196e-16</v>
+        <v>2.551692774063653e-16</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.534348021499576e-16</v>
+        <v>2.540383729428492e-16</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.524943453952524e-16</v>
+        <v>2.52997378880472e-16</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.516488945865424e-16</v>
+        <v>2.520409389406298e-16</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.50892155188794e-16</v>
+        <v>2.511632165334701e-16</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.502151674173507e-16</v>
+        <v>2.50356815961963e-16</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.496084316434437e-16</v>
+        <v>2.496140257332054e-16</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.49062448238305e-16</v>
+        <v>2.489271343542959e-16</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.485677175731658e-16</v>
+        <v>2.482884303323317e-16</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.481147400192576e-16</v>
+        <v>2.476902021744103e-16</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.476940159478115e-16</v>
+        <v>2.471247383876292e-16</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.472960457300594e-16</v>
+        <v>2.465843274790865e-16</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.469113297372326e-16</v>
+        <v>2.460612579558796e-16</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.465303683405625e-16</v>
+        <v>2.455478183251061e-16</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.461436619112804e-16</v>
+        <v>2.450362970938633e-16</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.45741710820618e-16</v>
+        <v>2.445189827692494e-16</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.453150154398067e-16</v>
+        <v>2.439881638583618e-16</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.448540761400777e-16</v>
+        <v>2.434361288682978e-16</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.443493932926628e-16</v>
+        <v>2.428551663061556e-16</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>2.437914672687934e-16</v>
+        <v>2.422375646790325e-16</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>2.431707984397007e-16</v>
+        <v>2.415756124940261e-16</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>2.424778871766162e-16</v>
+        <v>2.408615982582338e-16</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>2.417032338507715e-16</v>
+        <v>2.400878104787539e-16</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>2.408373388333981e-16</v>
+        <v>2.392465376626836e-16</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>2.398707024957269e-16</v>
+        <v>2.383300683171201e-16</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.387938252089901e-16</v>
+        <v>2.373306909491619e-16</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.375972073444189e-16</v>
+        <v>2.362406940659062e-16</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.362713492732446e-16</v>
+        <v>2.350523661744506e-16</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.348067513666981e-16</v>
+        <v>2.337579957818922e-16</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>2.331939139960121e-16</v>
+        <v>2.323498713953297e-16</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>2.314250611724519e-16</v>
+        <v>2.308210323828058e-16</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.295016260901943e-16</v>
+        <v>2.291685298640344e-16</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.274281049754145e-16</v>
+        <v>2.273907492924985e-16</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.252089961170604e-16</v>
+        <v>2.254860770202763e-16</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.228487978040804e-16</v>
+        <v>2.234528993994463e-16</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.20352008325422e-16</v>
+        <v>2.212896027820861e-16</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.177231259700363e-16</v>
+        <v>2.189945735202762e-16</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.149666490268704e-16</v>
+        <v>2.165661979660941e-16</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.120870757848718e-16</v>
+        <v>2.140028624716174e-16</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.090889045329915e-16</v>
+        <v>2.113029533889268e-16</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.059766335601771e-16</v>
+        <v>2.084648570700999e-16</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.02754761155377e-16</v>
+        <v>2.054869598672153e-16</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.994277856075384e-16</v>
+        <v>2.0236764813235e-16</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.960002052056127e-16</v>
+        <v>1.991053082175854e-16</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.924765182385471e-16</v>
+        <v>1.956983264749989e-16</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.888612229952887e-16</v>
+        <v>1.921450892566673e-16</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.851588177647891e-16</v>
+        <v>1.884439829146723e-16</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.81373301172544e-16</v>
+        <v>1.84593903147566e-16</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.775033641196076e-16</v>
+        <v>1.805991562372199e-16</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.735444969080717e-16</v>
+        <v>1.764673110891628e-16</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.694921457043252e-16</v>
+        <v>1.722059815999476e-16</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.653417566747512e-16</v>
+        <v>1.678227816661218e-16</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>1.610887759857348e-16</v>
+        <v>1.633253251842344e-16</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>1.567286498036592e-16</v>
+        <v>1.587212260508326e-16</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>1.522568242949133e-16</v>
+        <v>1.540180981624698e-16</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>1.476687456258803e-16</v>
+        <v>1.492235554156932e-16</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.429598599629431e-16</v>
+        <v>1.443452117070496e-16</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.38125613472491e-16</v>
+        <v>1.393906809330929e-16</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.331614523209071e-16</v>
+        <v>1.343675769903698e-16</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.280628226745741e-16</v>
+        <v>1.292835137754275e-16</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.228301832835645e-16</v>
+        <v>1.241499735325534e-16</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.175253952448476e-16</v>
+        <v>1.190258243741789e-16</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.122514733577019e-16</v>
+        <v>1.140016938488142e-16</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.071121909106963e-16</v>
+        <v>1.09168794851871e-16</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.022113211924068e-16</v>
+        <v>1.046183402787672e-16</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>9.765263749140244e-17</v>
+        <v>1.004415430249143e-16</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>9.353991309625436e-17</v>
+        <v>9.672961598572598e-17</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>8.997692129553237e-17</v>
+        <v>9.357377205661449e-17</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>8.706743537781112e-17</v>
+        <v>9.106522413299645e-17</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>8.491522863166007e-17</v>
+        <v>8.929518511028396e-17</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>8.362407434565013e-17</v>
+        <v>8.835486788389042e-17</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>8.329774580835382e-17</v>
+        <v>8.83354853492304e-17</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>8.404001630834164e-17</v>
+        <v>8.93282504017169e-17</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>8.594511161298179e-17</v>
+        <v>9.141519734257813e-17</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>8.89714291078635e-17</v>
+        <v>9.454778065355775e-17</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>9.297628835867143e-17</v>
+        <v>9.858028275777518e-17</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>9.781460232626632e-17</v>
+        <v>1.033646724674585e-16</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.033412839715104e-16</v>
+        <v>1.08752918594837e-16</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.094112462552583e-16</v>
+        <v>1.145969899521329e-16</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.15879402138372e-16</v>
+        <v>1.207488553515752e-16</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.226006645817111e-16</v>
+        <v>1.270604836053909e-16</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.294299465461384e-16</v>
+        <v>1.333838435258096e-16</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.362221609925072e-16</v>
+        <v>1.395709039250526e-16</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.428322208816803e-16</v>
+        <v>1.454736336153495e-16</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.491150391745199e-16</v>
+        <v>1.509440014089296e-16</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.549255288318801e-16</v>
+        <v>1.558339761180148e-16</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>1.601186028146234e-16</v>
+        <v>1.599955265548346e-16</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.645601611736079e-16</v>
+        <v>1.633113181494076e-16</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.682698498741221e-16</v>
+        <v>1.660935640621258e-16</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.713804462592793e-16</v>
+        <v>1.689705530171492e-16</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.740284282261295e-16</v>
+        <v>1.725777903756686e-16</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.769281543501337e-16</v>
+        <v>1.774895918134663e-16</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.822954791084303e-16</v>
+        <v>1.841077829617193e-16</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.906815805886437e-16</v>
+        <v>1.920778223980998e-16</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.99515357768063e-16</v>
+        <v>1.998549710003612e-16</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.062693253849441e-16</v>
+        <v>2.059557449051714e-16</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>2.103179028777126e-16</v>
+        <v>2.098780184133109e-16</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.117133171968702e-16</v>
+        <v>2.114694057129594e-16</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.105086264970301e-16</v>
+        <v>2.10577949882839e-16</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.067849955695108e-16</v>
+        <v>2.070861958808131e-16</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.011778165102775e-16</v>
+        <v>2.015570220565721e-16</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.948298523106262e-16</v>
+        <v>1.951761222711308e-16</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.889025783888064e-16</v>
+        <v>1.89152160543763e-16</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.845574701630757e-16</v>
+        <v>1.846938008937503e-16</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.829560030516833e-16</v>
+        <v>1.830097073403663e-16</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.852596524728812e-16</v>
+        <v>1.853085439028868e-16</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.92629893844926e-16</v>
+        <v>1.927989746005928e-16</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.062282025860634e-16</v>
+        <v>2.06689663452754e-16</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.264738271338269e-16</v>
+        <v>2.274062311087793e-16</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.451676103395045e-16</v>
+        <v>2.462819510945582e-16</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.513263546205313e-16</v>
+        <v>2.516995506717415e-16</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.476261303710028e-16</v>
+        <v>2.46385651981671e-16</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>2.409140354517079e-16</v>
+        <v>2.374565091188897e-16</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>2.34830063433674e-16</v>
+        <v>2.290106571823544e-16</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.289268801276633e-16</v>
+        <v>2.213004906013123e-16</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.22491934823593e-16</v>
+        <v>2.143288373139129e-16</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.148127718792759e-16</v>
+        <v>2.080985421504499e-16</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.056788570714941e-16</v>
+        <v>2.027016338877682e-16</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.965531991464523e-16</v>
+        <v>1.985275049159796e-16</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.892471807322376e-16</v>
+        <v>1.960274484656187e-16</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.855721844569365e-16</v>
+        <v>1.956527577672208e-16</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.871288163867624e-16</v>
+        <v>1.977571457460879e-16</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.926831451377299e-16</v>
+        <v>2.013820587874425e-16</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.989717886664754e-16</v>
+        <v>2.046293966161294e-16</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.026872615863141e-16</v>
+        <v>2.055806410430432e-16</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.012346383635102e-16</v>
+        <v>2.027376805781005e-16</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.950782462733459e-16</v>
+        <v>1.964073473715174e-16</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.855032548578374e-16</v>
+        <v>1.87380766347444e-16</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.737948436967008e-16</v>
+        <v>1.764490683522189e-16</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.612381916605606e-16</v>
+        <v>1.644033847112503e-16</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.490414468166545e-16</v>
+        <v>1.520868892094331e-16</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.38123789377689e-16</v>
+        <v>1.405379839975348e-16</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.293366522019513e-16</v>
+        <v>1.308408417335889e-16</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.23531468147734e-16</v>
+        <v>1.240796350756345e-16</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.214964466772483e-16</v>
+        <v>1.212657204496922e-16</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.230272208190627e-16</v>
+        <v>1.222672750100756e-16</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.271307965493008e-16</v>
+        <v>1.260441910990602e-16</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.32792423996198e-16</v>
+        <v>1.315313042134219e-16</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.389973532879813e-16</v>
+        <v>1.376634498499284e-16</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.447308345528858e-16</v>
+        <v>1.433754635053549e-16</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.48978117919144e-16</v>
+        <v>1.476021806764747e-16</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.507244535149887e-16</v>
+        <v>1.492784368600607e-16</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.489594100657027e-16</v>
+        <v>1.473436285283823e-16</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.432350749496755e-16</v>
+        <v>1.413312417997307e-16</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.342182159231852e-16</v>
+        <v>1.319520038802622e-16</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.227068219687313e-16</v>
+        <v>1.200552279081835e-16</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.094988820688014e-16</v>
+        <v>1.064902270216886e-16</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>9.53923852058869e-17</v>
+        <v>9.210631435897558e-17</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>8.11853203624725e-17</v>
+        <v>7.775280305823581e-17</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>6.767567652106247e-17</v>
+        <v>6.427900625768035e-17</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>5.566144266414144e-17</v>
+        <v>5.253423709550048e-17</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>4.593893581694445e-17</v>
+        <v>4.336594534373052e-17</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>3.895873820722729e-17</v>
+        <v>3.723626558703671e-17</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>3.440429109405043e-17</v>
+        <v>3.375236765605063e-17</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>3.185589034502215e-17</v>
+        <v>3.240646770557092e-17</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>3.089383182775053e-17</v>
+        <v>3.269078189039655e-17</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>3.109841140984452e-17</v>
+        <v>3.409752636532571e-17</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>3.204992495891162e-17</v>
+        <v>3.611891728515676e-17</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>3.332866834256062e-17</v>
+        <v>3.824717080468922e-17</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>3.451493742839851e-17</v>
+        <v>3.99745030787196e-17</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>3.521273324089553e-17</v>
+        <v>4.082282404044939e-17</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>3.538659061380874e-17</v>
+        <v>4.076565890248536e-17</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>3.528159862420807e-17</v>
+        <v>4.012796339440229e-17</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>3.515023947693049e-17</v>
+        <v>3.924395409559386e-17</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>3.524499537681282e-17</v>
+        <v>3.844784758545294e-17</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>3.581834852869226e-17</v>
+        <v>3.807386044337253e-17</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>3.712278113740518e-17</v>
+        <v>3.845620924874613e-17</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>3.941077540778853e-17</v>
+        <v>3.992911058096648e-17</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>4.29348135446791e-17</v>
+        <v>4.282678101942661e-17</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>4.785533156915685e-17</v>
+        <v>4.737090976119985e-17</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>5.395316110946295e-17</v>
+        <v>5.33191158279398e-17</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>6.091128978762171e-17</v>
+        <v>6.0309402962904e-17</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>6.841270512549215e-17</v>
+        <v>6.797977478689752e-17</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>7.614039464493671e-17</v>
+        <v>7.596823492072906e-17</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>8.377734586780729e-17</v>
+        <v>8.391278698519627e-17</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>9.100654631596638e-17</v>
+        <v>9.145143460110786e-17</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>9.751098351127563e-17</v>
+        <v>9.822218138927164e-17</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.02976474688255e-16</v>
+        <v>1.038659641294456e-16</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.076195561953495e-16</v>
+        <v>1.085738403051619e-16</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.128085741427043e-16</v>
+        <v>1.137307840690431e-16</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.200628367562609e-16</v>
+        <v>1.208782504375181e-16</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.30901652261967e-16</v>
+        <v>1.315576944270213e-16</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.468443288857684e-16</v>
+        <v>1.473105710539857e-16</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.694101748536224e-16</v>
+        <v>1.696783353348556e-16</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.001184983914551e-16</v>
+        <v>2.002024422860442e-16</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.404886077252205e-16</v>
+        <v>2.404243469239927e-16</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.920061811643855e-16</v>
+        <v>2.918516911412698e-16</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.54272997261595e-16</v>
+        <v>3.540979540583006e-16</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>4.240452830777148e-16</v>
+        <v>4.239155614499557e-16</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>4.978429912112352e-16</v>
+        <v>4.978193774644745e-16</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>5.721860742606537e-16</v>
+        <v>5.723242662501035e-16</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>6.435944848243665e-16</v>
+        <v>6.439450919549878e-16</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>7.085881755008717e-16</v>
+        <v>7.091967187273747e-16</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>7.636870988886558e-16</v>
+        <v>7.645940107154997e-16</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>8.054112075861324e-16</v>
+        <v>8.066518320675253e-16</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>8.309870805741223e-16</v>
+        <v>8.325907898105862e-16</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>8.413394958667382e-16</v>
+        <v>8.433250661025317e-16</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>8.385990139213673e-16</v>
+        <v>8.409731179402446e-16</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>8.248968587776703e-16</v>
+        <v>8.276540650731959e-16</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>8.023642544753066e-16</v>
+        <v>8.054870272508565e-16</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>7.731324250539339e-16</v>
+        <v>7.765911242226942e-16</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>7.393325945531936e-16</v>
+        <v>7.430854757381613e-16</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>7.030959870127747e-16</v>
+        <v>7.070892015467578e-16</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>6.665537959680221e-16</v>
+        <v>6.707213911579385e-16</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>6.314283543160624e-16</v>
+        <v>6.356958159538706e-16</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>5.980081516583941e-16</v>
+        <v>6.023048273386516e-16</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>5.662675368384523e-16</v>
+        <v>5.705293577832225e-16</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>5.361808586996871e-16</v>
+        <v>5.403503397585405e-16</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>5.077224660855376e-16</v>
+        <v>5.117487057355502e-16</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>4.808667078394801e-16</v>
+        <v>4.847053881852344e-16</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>4.555879328049522e-16</v>
+        <v>4.592013195785373e-16</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>4.318604898254048e-16</v>
+        <v>4.352174323864159e-16</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>4.096587277442793e-16</v>
+        <v>4.127346590798175e-16</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>3.889569954050463e-16</v>
+        <v>3.917339321297198e-16</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>3.697296416511463e-16</v>
+        <v>3.721961840070689e-16</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>3.519510153260227e-16</v>
+        <v>3.541023471828148e-16</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>3.355954652731424e-16</v>
+        <v>3.374333541279304e-16</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>3.206373403359477e-16</v>
+        <v>3.221701373133647e-16</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>3.070509893578838e-16</v>
+        <v>3.082936292100688e-16</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.948107611824139e-16</v>
+        <v>2.957847622890126e-16</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>2.838910046529822e-16</v>
+        <v>2.846244690211462e-16</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.742609985218809e-16</v>
+        <v>2.747877778669838e-16</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.658561521409576e-16</v>
+        <v>2.662102771097971e-16</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.585979975778454e-16</v>
+        <v>2.58811395238415e-16</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.524080249750815e-16</v>
+        <v>2.525105119208089e-16</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.472077244752076e-16</v>
+        <v>2.472270068249546e-16</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>2.42918586220763e-16</v>
+        <v>2.428802596188261e-16</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>2.394621003542932e-16</v>
+        <v>2.393896499704032e-16</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>2.367597570183372e-16</v>
+        <v>2.366745575476591e-16</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>2.347330463554357e-16</v>
+        <v>2.34654362018569e-16</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.333034585081318e-16</v>
+        <v>2.332484430511104e-16</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.323924836189659e-16</v>
+        <v>2.32376180313258e-16</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.319216118304793e-16</v>
+        <v>2.319569534729874e-16</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.318123332852135e-16</v>
+        <v>2.319101421982746e-16</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.319861381257099e-16</v>
+        <v>2.321551261570953e-16</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.323645164945098e-16</v>
+        <v>2.326112850174253e-16</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.328689585341542e-16</v>
+        <v>2.331979984472395e-16</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.334209543871851e-16</v>
+        <v>2.338346461145149e-16</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.339419941961435e-16</v>
+        <v>2.344406076872265e-16</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.343535681035703e-16</v>
+        <v>2.349352628333496e-16</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.345771662520076e-16</v>
+        <v>2.352379912208607e-16</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.345342787839965e-16</v>
+        <v>2.352681725177352e-16</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.341463958420781e-16</v>
+        <v>2.349451863919488e-16</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.333350075687935e-16</v>
+        <v>2.341884125114768e-16</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.320216041066857e-16</v>
+        <v>2.329172305442963e-16</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.301276755982933e-16</v>
+        <v>2.310510201583808e-16</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.275747121861588e-16</v>
+        <v>2.285091610217069e-16</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.242915567794512e-16</v>
+        <v>2.252185768181815e-16</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.202927806188508e-16</v>
+        <v>2.211941494019419e-16</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.156483836409934e-16</v>
+        <v>2.165076310524382e-16</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.104292950047036e-16</v>
+        <v>2.112317274408645e-16</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.047064438687916e-16</v>
+        <v>2.054391442384003e-16</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.985507593920817e-16</v>
+        <v>1.992025871162392e-16</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.920331707333996e-16</v>
+        <v>1.925947617455764e-16</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.852246070515531e-16</v>
+        <v>1.85688373797589e-16</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.781959975053678e-16</v>
+        <v>1.78556128943472e-16</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.7101827125367e-16</v>
+        <v>1.712707328544209e-16</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.637623574552663e-16</v>
+        <v>1.639048912016118e-16</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.564991852689893e-16</v>
+        <v>1.565313096562468e-16</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.492996838536458e-16</v>
+        <v>1.492226938895018e-16</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.42234782368062e-16</v>
+        <v>1.420517495725723e-16</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.353754099710636e-16</v>
+        <v>1.350911823766539e-16</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.28792495821458e-16</v>
+        <v>1.284136979729227e-16</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.225569690780713e-16</v>
+        <v>1.220920020325745e-16</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.167384092413063e-16</v>
+        <v>1.161974149575576e-16</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.113674000422796e-16</v>
+        <v>1.107612324746624e-16</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.064305206887808e-16</v>
+        <v>1.057695847251843e-16</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.019119943916551e-16</v>
+        <v>1.012061836903438e-16</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>9.779604436173569e-17</v>
+        <v>9.705474135134925e-17</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>9.406689380987113e-17</v>
+        <v>9.329896968942462e-17</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>9.070876594689606e-17</v>
+        <v>8.992258068577977e-17</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>8.770588398365528e-17</v>
+        <v>8.690928632163478e-17</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>8.504247113099227e-17</v>
+        <v>8.424279857820846e-17</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>8.27027505997435e-17</v>
+        <v>8.190682943671254e-17</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>8.06709456007528e-17</v>
+        <v>7.988509087836611e-17</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>7.893127934486286e-17</v>
+        <v>7.816129488438716e-17</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>7.746797504291183e-17</v>
+        <v>7.671915343598913e-17</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>7.626525590574265e-17</v>
+        <v>7.554237851439025e-17</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>7.530734514419736e-17</v>
+        <v>7.461468210080779e-17</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>7.457846596911548e-17</v>
+        <v>7.391977617645663e-17</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>7.406284159133922e-17</v>
+        <v>7.344137272255423e-17</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>7.374469522171012e-17</v>
+        <v>7.316318372031738e-17</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>7.360825007106882e-17</v>
+        <v>7.306892115096205e-17</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>7.363772935025686e-17</v>
+        <v>7.314229699570502e-17</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>7.381735627011559e-17</v>
+        <v>7.3367023235763e-17</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>7.413135404148627e-17</v>
+        <v>7.372681185235249e-17</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>7.456394587520977e-17</v>
+        <v>7.420537482668959e-17</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>7.509935498212814e-17</v>
+        <v>7.478642413999172e-17</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>7.572180457308228e-17</v>
+        <v>7.545367177347502e-17</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>7.641551785891277e-17</v>
+        <v>7.619082970835535e-17</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>7.716471805046219e-17</v>
+        <v>7.69816099258506e-17</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>7.795362835857117e-17</v>
+        <v>7.780972440717666e-17</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>7.876647199408024e-17</v>
+        <v>7.865888513354934e-17</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>7.958747216783215e-17</v>
+        <v>7.95128040861867e-17</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>8.040085209066739e-17</v>
+        <v>8.035519324630449e-17</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>8.119083497342655e-17</v>
+        <v>8.116976459511857e-17</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>8.194164402695236e-17</v>
+        <v>8.1940230113847e-17</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>8.263750246208474e-17</v>
+        <v>8.265030178370495e-17</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>8.326263348966615e-17</v>
+        <v>8.328369158591018e-17</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>8.380365259156477e-17</v>
+        <v>8.382655567013187e-17</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>8.42837240060918e-17</v>
+        <v>8.430239182353591e-17</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>8.475453759383703e-17</v>
+        <v>8.476384228443139e-17</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>8.526853989762354e-17</v>
+        <v>8.526432238866612e-17</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>8.587817746027421e-17</v>
+        <v>8.58572474720879e-17</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>8.663589682461363e-17</v>
+        <v>8.659603287054615e-17</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>8.759414453346483e-17</v>
+        <v>8.753409391988874e-17</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>8.880536712965011e-17</v>
+        <v>8.872484595596284e-17</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>9.032201115599512e-17</v>
+        <v>9.022170431461893e-17</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>9.219652315532059e-17</v>
+        <v>9.207808433170256e-17</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>9.448134967045332e-17</v>
+        <v>9.434740134306539e-17</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>9.72289372442153e-17</v>
+        <v>9.708307068455431e-17</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.004917324194269e-16</v>
+        <v>1.003385076920145e-16</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.043221817389175e-16</v>
+        <v>1.041671277013001e-16</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.087727317455079e-16</v>
+        <v>1.086223460482569e-16</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.138958289820166e-16</v>
+        <v>1.137575780687282e-16</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.197439199912764e-16</v>
+        <v>1.196262390985716e-16</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.263694513161066e-16</v>
+        <v>1.262817444736312e-16</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.338248694993234e-16</v>
+        <v>1.337775095297482e-16</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.421626210837639e-16</v>
+        <v>1.421669496027844e-16</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.514351526122452e-16</v>
+        <v>1.515034800285819e-16</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.616949106275811e-16</v>
+        <v>1.618405161429792e-16</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.729668472807882e-16</v>
+        <v>1.732037150001936e-16</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.84980237494063e-16</v>
+        <v>1.853202185300814e-16</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.972843836345769e-16</v>
+        <v>1.977354687397173e-16</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.094260379359723e-16</v>
+        <v>2.099923330265905e-16</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.209519526318485e-16</v>
+        <v>2.216336787881466e-16</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.314088799558464e-16</v>
+        <v>2.322023734218736e-16</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.403435721415756e-16</v>
+        <v>2.412412843252271e-16</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.473027814226507e-16</v>
+        <v>2.482932788956685e-16</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.518332600327049e-16</v>
+        <v>2.529012245306774e-16</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.534817602053508e-16</v>
+        <v>2.546079886277132e-16</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>2.517950341742117e-16</v>
+        <v>2.529564385842457e-16</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.463198341729049e-16</v>
+        <v>2.474894417977387e-16</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.366029124350506e-16</v>
+        <v>2.377498656656591e-16</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.223496946669666e-16</v>
+        <v>2.234402025643083e-16</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.043562945344705e-16</v>
+        <v>2.053601732818378e-16</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.83877333195162e-16</v>
+        <v>1.847707555980503e-16</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.621690184992383e-16</v>
+        <v>1.629345235001547e-16</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.404875582969521e-16</v>
+        <v>1.411140509754156e-16</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.200891604385558e-16</v>
+        <v>1.205719120110975e-16</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.022300327742468e-16</v>
+        <v>1.025706805944094e-16</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>8.816638315427928e-17</v>
+        <v>8.837293071261768e-17</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>7.915441942889371e-17</v>
+        <v>7.924123635297472e-17</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>7.616272820602857e-17</v>
+        <v>7.614937945796378e-17</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>7.884640882217534e-17</v>
+        <v>7.875230796509962e-17</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>8.648582508954112e-17</v>
+        <v>8.632870887428488e-17</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>9.836131254261895e-17</v>
+        <v>9.815724079259967e-17</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.137532067158676e-16</v>
+        <v>1.135165623270899e-16</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.319418431437943e-16</v>
+        <v>1.316853320848498e-16</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.522075573608653e-16</v>
+        <v>1.519422086729329e-16</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.738306849015396e-16</v>
+        <v>1.735658506983851e-16</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.960915613003356e-16</v>
+        <v>1.958349167683119e-16</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.182705220917129e-16</v>
+        <v>2.180280654897603e-16</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.396479028101318e-16</v>
+        <v>2.394239554697773e-16</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.595040389901102e-16</v>
+        <v>2.593012453154681e-16</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.771192661661069e-16</v>
+        <v>2.769385936338786e-16</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.917739198725895e-16</v>
+        <v>2.916146590320633e-16</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.027483356440633e-16</v>
+        <v>3.02608100117115e-16</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>3.093228490149928e-16</v>
+        <v>3.09197575496085e-16</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>3.107777955198578e-16</v>
+        <v>3.106617437760401e-16</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.065449079501139e-16</v>
+        <v>3.064309594783363e-16</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.970708973598916e-16</v>
+        <v>2.969525576074331e-16</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.832196800473653e-16</v>
+        <v>2.830919014214418e-16</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.658564548840567e-16</v>
+        <v>2.657156392819197e-16</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.458464207415429e-16</v>
+        <v>2.456904195504795e-16</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.240547764913345e-16</v>
+        <v>2.238828905886672e-16</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.013467210049961e-16</v>
+        <v>2.011597007580827e-16</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.785874531540952e-16</v>
+        <v>1.783874984203293e-16</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.566421718101379e-16</v>
+        <v>1.564329319369482e-16</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.363760758446919e-16</v>
+        <v>1.361626496695429e-16</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.186537912596481e-16</v>
+        <v>1.184427258062592e-16</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.040226353843529e-16</v>
+        <v>1.038212037075749e-16</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>9.218624155134894e-17</v>
+        <v>9.200052261718518e-17</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>8.270957246711894e-17</v>
+        <v>8.254413555560537e-17</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>7.515759083812151e-17</v>
+        <v>7.501549554332676e-17</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.909525937084628e-17</v>
+        <v>6.897805560087164e-17</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>6.408754077175795e-17</v>
+        <v>6.399526874873737e-17</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>5.970080683566154e-17</v>
+        <v>5.963200241273053e-17</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>5.564141766394804e-17</v>
+        <v>5.559364054867723e-17</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>5.18725749440352e-17</v>
+        <v>5.184337784898137e-17</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>4.838499422233786e-17</v>
+        <v>4.837202668418007e-17</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>4.516939104526984e-17</v>
+        <v>4.517039942480945e-17</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>4.221648095923643e-17</v>
+        <v>4.222930844139713e-17</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>3.951697951065171e-17</v>
+        <v>3.953956610447943e-17</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.706160224592886e-17</v>
+        <v>3.709198478459188e-17</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>3.484106471147451e-17</v>
+        <v>3.487737685226337e-17</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>3.284608245370204e-17</v>
+        <v>3.28865546780296e-17</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>3.106737101902402e-17</v>
+        <v>3.111033063242545e-17</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.949564595384833e-17</v>
+        <v>2.953951708598106e-17</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.81216228045877e-17</v>
+        <v>2.816492640923149e-17</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.693601711765421e-17</v>
+        <v>2.69773709727111e-17</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.592954443945677e-17</v>
+        <v>2.596766314695111e-17</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.509292031640829e-17</v>
+        <v>2.512661530248673e-17</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.441686029491831e-17</v>
+        <v>2.444503980984979e-17</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.389207992139874e-17</v>
+        <v>2.39137490395745e-17</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.350929474226092e-17</v>
+        <v>2.352355536219451e-17</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.325922030391523e-17</v>
+        <v>2.326527114824247e-17</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.313257215277314e-17</v>
+        <v>2.312970876825217e-17</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.312006583524566e-17</v>
+        <v>2.310768059275693e-17</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.321241689774385e-17</v>
+        <v>2.318999899229008e-17</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.340034088667885e-17</v>
+        <v>2.336747633738506e-17</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.36745533484614e-17</v>
+        <v>2.363092499857493e-17</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.402576982950309e-17</v>
+        <v>2.397115734639357e-17</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.444470587621435e-17</v>
+        <v>2.43789857513737e-17</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.492207703500704e-17</v>
+        <v>2.484522258404947e-17</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.544859885229182e-17</v>
+        <v>2.536068021495387e-17</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.601498687447926e-17</v>
+        <v>2.591617101461975e-17</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.661195664798145e-17</v>
+        <v>2.650250735358149e-17</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.723022371920895e-17</v>
+        <v>2.711050160237194e-17</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.786050363457225e-17</v>
+        <v>2.773096613152393e-17</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.849351194048355e-17</v>
+        <v>2.835471331157192e-17</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.911996418335337e-17</v>
+        <v>2.897255551304873e-17</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.97305759095922e-17</v>
+        <v>2.957530510648718e-17</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.031606266561223e-17</v>
+        <v>3.015377446242172e-17</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.086713999782349e-17</v>
+        <v>3.069877595138471e-17</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.137452345263802e-17</v>
+        <v>3.120112194391046e-17</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.182892857646639e-17</v>
+        <v>3.165162481053185e-17</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.222107359245192e-17</v>
+        <v>3.204109956248331e-17</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.254447684383971e-17</v>
+        <v>3.236312363899338e-17</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.280075812956878e-17</v>
+        <v>3.261926688218364e-17</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.29929939071026e-17</v>
+        <v>3.28125361847804e-17</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.312426063390507e-17</v>
+        <v>3.294593843951049e-17</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.319763476743959e-17</v>
+        <v>3.302248053910019e-17</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.321619276516973e-17</v>
+        <v>3.304516937627597e-17</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.318301108455911e-17</v>
+        <v>3.301701184376436e-17</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.310116618307128e-17</v>
+        <v>3.294101483429176e-17</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.297373451816993e-17</v>
+        <v>3.28201852405848e-17</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.280379254731843e-17</v>
+        <v>3.265752995536973e-17</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.259441672798045e-17</v>
+        <v>3.24560558713731e-17</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.234868351761981e-17</v>
+        <v>3.221876988132164e-17</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.206966937369964e-17</v>
+        <v>3.194867887794135e-17</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.176045075368403e-17</v>
+        <v>3.164878975395924e-17</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.142410411503599e-17</v>
+        <v>3.132210940210123e-17</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.106370591521937e-17</v>
+        <v>3.097164471509401e-17</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.068233261169811e-17</v>
+        <v>3.060040258566445e-17</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.028306066193509e-17</v>
+        <v>3.021138990653832e-17</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.986896652339424e-17</v>
+        <v>2.980761357044245e-17</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.94431266535395e-17</v>
+        <v>2.939208047010365e-17</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.900861750983372e-17</v>
+        <v>2.896779749824769e-17</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.856851554974083e-17</v>
+        <v>2.853777154760139e-17</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.812589723072483e-17</v>
+        <v>2.810500951089163e-17</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.768383901024849e-17</v>
+        <v>2.767251828084407e-17</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.724541734577618e-17</v>
+        <v>2.7243304750186e-17</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.681370869477071e-17</v>
+        <v>2.682037581164311e-17</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.639178951469602e-17</v>
+        <v>2.640673835794223e-17</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.598273626301609e-17</v>
+        <v>2.600539928181024e-17</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.558962539719373e-17</v>
+        <v>2.561936547597285e-17</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>2.521553337469293e-17</v>
+        <v>2.525164383315693e-17</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.486353665297755e-17</v>
+        <v>2.490524124608923e-17</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.453671168951055e-17</v>
+        <v>2.458316460749563e-17</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.423813494175583e-17</v>
+        <v>2.42884208101029e-17</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.397088286717719e-17</v>
+        <v>2.402401674663775e-17</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>2.373803192323775e-17</v>
+        <v>2.379295930982617e-17</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>2.354265856740148e-17</v>
+        <v>2.359825539239506e-17</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>2.338783925713163e-17</v>
+        <v>2.344291188707053e-17</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>2.327665039715609e-17</v>
+        <v>2.332993563512888e-17</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>2.321065483199314e-17</v>
+        <v>2.326085681237593e-17</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>2.318594364566048e-17</v>
+        <v>2.323186721445763e-17</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>2.319737183454018e-17</v>
+        <v>2.323795268041614e-17</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.32397943950143e-17</v>
+        <v>2.327409904929364e-17</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>2.330806632346503e-17</v>
+        <v>2.333529216013241e-17</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.339704261627443e-17</v>
+        <v>2.341651785197461e-17</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.35015782698245e-17</v>
+        <v>2.351276196386237e-17</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.361652828049753e-17</v>
+        <v>2.361901033483803e-17</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.373674764467552e-17</v>
+        <v>2.373024880394372e-17</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.385709135874045e-17</v>
+        <v>2.384146321022155e-17</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.397241441907464e-17</v>
+        <v>2.39476393927139e-17</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.407757182206006e-17</v>
+        <v>2.404376319046287e-17</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.416741856407877e-17</v>
+        <v>2.41248204425106e-17</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.423680964151298e-17</v>
+        <v>2.418579698789943e-17</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.42806000507447e-17</v>
+        <v>2.422167866567145e-17</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.42936447881561e-17</v>
+        <v>2.422745131486893e-17</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.427079885012921e-17</v>
+        <v>2.419810077453401e-17</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.420723065720704e-17</v>
+        <v>2.412892215767997e-17</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.410361129871867e-17</v>
+        <v>2.402064038280149e-17</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.396530635654181e-17</v>
+        <v>2.387861269906119e-17</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>2.379783192195303e-17</v>
+        <v>2.370834487205814e-17</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>2.360670408622847e-17</v>
+        <v>2.351534266739091e-17</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>2.339743894064466e-17</v>
+        <v>2.330511185065854e-17</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>2.317555257647825e-17</v>
+        <v>2.308315818746013e-17</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>2.294656108500525e-17</v>
+        <v>2.285498744339419e-17</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>2.271598055750249e-17</v>
+        <v>2.262610538405999e-17</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>2.248932708524596e-17</v>
+        <v>2.240201777505602e-17</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>2.22721167595123e-17</v>
+        <v>2.218823038198138e-17</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>2.20698656715781e-17</v>
+        <v>2.199024897043515e-17</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>2.188808991271942e-17</v>
+        <v>2.181357930601584e-17</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>2.173230557421287e-17</v>
+        <v>2.166372715432255e-17</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>2.160800391332241e-17</v>
+        <v>2.154617254933475e-17</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>2.151641315095351e-17</v>
+        <v>2.146197840438856e-17</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>2.144970049296462e-17</v>
+        <v>2.140281911410972e-17</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>2.139887402562881e-17</v>
+        <v>2.135916805802159e-17</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>2.135494183521903e-17</v>
+        <v>2.132149861564739e-17</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>2.130891200800841e-17</v>
+        <v>2.128028416651052e-17</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>2.125179263026989e-17</v>
+        <v>2.12259980901342e-17</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>2.117459178827654e-17</v>
+        <v>2.114911376604179e-17</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>2.106831756830139e-17</v>
+        <v>2.104010457375657e-17</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>2.092441544643129e-17</v>
+        <v>2.088992305762081e-17</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>2.074810139494265e-17</v>
+        <v>2.070460747523579e-17</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>2.056080622029068e-17</v>
+        <v>2.050795959363601e-17</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>2.038489108157469e-17</v>
+        <v>2.032480039027696e-17</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>2.024271713789448e-17</v>
+        <v>2.017995084261471e-17</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>2.015664554834977e-17</v>
+        <v>2.009823192810516e-17</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>2.014903747204004e-17</v>
+        <v>2.010446462420405e-17</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>2.023958995642826e-17</v>
+        <v>2.022053131008804e-17</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>2.040297863291375e-17</v>
+        <v>2.04186543379481e-17</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>2.05763779820239e-17</v>
+        <v>2.062969112019495e-17</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>2.0695818192599e-17</v>
+        <v>2.078323687979635e-17</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>2.069732945347957e-17</v>
+        <v>2.080888683972026e-17</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>2.053616157051184e-17</v>
+        <v>2.065707692943092e-17</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>2.025356090309407e-17</v>
+        <v>2.037149305999846e-17</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.99148165022911e-17</v>
+        <v>2.002189172861622e-17</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.958521853989049e-17</v>
+        <v>1.967803064772818e-17</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.931900600347197e-17</v>
+        <v>1.939794308772828e-17</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.912115109842559e-17</v>
+        <v>1.918739411662478e-17</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.898290218351897e-17</v>
+        <v>1.903758887460254e-17</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.889550703637167e-17</v>
+        <v>1.893973188529379e-17</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.885021343460301e-17</v>
+        <v>1.888502767233053e-17</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.883826915583258e-17</v>
+        <v>1.886468075934505e-17</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.885092197767985e-17</v>
+        <v>1.886989566996948e-17</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.887941967776435e-17</v>
+        <v>1.889187692783603e-17</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.891501003370553e-17</v>
+        <v>1.892182905657683e-17</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.894894082312294e-17</v>
+        <v>1.895095657982411e-17</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.897245982363606e-17</v>
+        <v>1.897046402121002e-17</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.897681481286435e-17</v>
+        <v>1.897155590436671e-17</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.895325356842737e-17</v>
+        <v>1.894543675292642e-17</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.88933455164855e-17</v>
+        <v>1.888363411547634e-17</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.879642728286126e-17</v>
+        <v>1.878547597804585e-17</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.866981356420134e-17</v>
+        <v>1.865830253763872e-17</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.85211828894129e-17</v>
+        <v>1.850981938044796e-17</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.835821378740313e-17</v>
+        <v>1.834773209266661e-17</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.818858478707882e-17</v>
+        <v>1.81797462604873e-17</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.801997441734716e-17</v>
+        <v>1.801356747010309e-17</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.786006120711537e-17</v>
+        <v>1.785690130770701e-17</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.771652368529021e-17</v>
+        <v>1.77174533594917e-17</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.75970403807789e-17</v>
+        <v>1.760292921165022e-17</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.750928982248856e-17</v>
+        <v>1.752103445037554e-17</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.746095053932612e-17</v>
+        <v>1.747947466186043e-17</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.745970106019868e-17</v>
+        <v>1.748595543229784e-17</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.751164883716363e-17</v>
+        <v>1.754651643403935e-17</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.761400121015032e-17</v>
+        <v>1.765775997805806e-17</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.776083509751639e-17</v>
+        <v>1.7812968987974e-17</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.794622395788984e-17</v>
+        <v>1.800542271883332e-17</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.816424124989827e-17</v>
+        <v>1.822840042568171e-17</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.840896043216918e-17</v>
+        <v>1.84751813635648e-17</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.867445496333072e-17</v>
+        <v>1.873904478752887e-17</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.895479830201041e-17</v>
+        <v>1.901326995261954e-17</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.924406425126957e-17</v>
+        <v>1.929113647099571e-17</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.959850385251533e-17</v>
+        <v>1.963039008613877e-17</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.030999900479547e-17</v>
+        <v>2.033308153506861e-17</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.172322872309233e-17</v>
+        <v>2.175598583238713e-17</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.39882506671367e-17</v>
+        <v>2.405303049661202e-17</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.694515566118925e-17</v>
+        <v>2.705507471512625e-17</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.040637601395407e-17</v>
+        <v>3.056415010590831e-17</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.418434403412735e-17</v>
+        <v>3.438228828692868e-17</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.809149203040424e-17</v>
+        <v>3.831152087615683e-17</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.193979430266827e-17</v>
+        <v>4.215357222192939e-17</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.551202266354029e-17</v>
+        <v>4.56905752642591e-17</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>4.854466615971857e-17</v>
+        <v>4.867361269195193e-17</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>5.077011100907199e-17</v>
+        <v>5.085101468187646e-17</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>5.192074342946024e-17</v>
+        <v>5.197111141089225e-17</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>5.177395504745348e-17</v>
+        <v>5.182542971802937e-17</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>5.054408038692784e-17</v>
+        <v>5.062487880687116e-17</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>4.869116091598965e-17</v>
+        <v>4.881619997689675e-17</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>4.667797627830692e-17</v>
+        <v>4.684876265713887e-17</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>4.496730611754201e-17</v>
+        <v>4.517193627662467e-17</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>4.397970758106006e-17</v>
+        <v>4.419397345542364e-17</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>4.366077691964086e-17</v>
+        <v>4.386060379483723e-17</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>4.365705770343821e-17</v>
+        <v>4.382633555645628e-17</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>4.361043034279381e-17</v>
+        <v>4.374113595697976e-17</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>4.316277524804945e-17</v>
+        <v>4.325497221310659e-17</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>4.196120302231234e-17</v>
+        <v>4.202295219653475e-17</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.98926963435505e-17</v>
+        <v>3.993594938762054e-17</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.717880529062895e-17</v>
+        <v>3.721367707416938e-17</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.406590894082257e-17</v>
+        <v>3.410025248482026e-17</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>3.080038637140765e-17</v>
+        <v>3.08397928482135e-17</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.762861665965153e-17</v>
+        <v>2.767641539298049e-17</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.479697888283282e-17</v>
+        <v>2.485423734776389e-17</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.254796638385449e-17</v>
+        <v>2.26135215384062e-17</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.098840923473394e-17</v>
+        <v>2.105996140421391e-17</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.005732836917037e-17</v>
+        <v>2.013279433009344e-17</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.968333853800979e-17</v>
+        <v>1.976093542555864e-17</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.979505449210092e-17</v>
+        <v>1.987329980012607e-17</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.032109098229077e-17</v>
+        <v>2.039880256331055e-17</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.119006275942797e-17</v>
+        <v>2.126635882462857e-17</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.233058457435982e-17</v>
+        <v>2.240488369359527e-17</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.36712711779327e-17</v>
+        <v>2.374329227972484e-17</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>2.514073732099669e-17</v>
+        <v>2.521049969253521e-17</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>2.666759775439692e-17</v>
+        <v>2.673542104153935e-17</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>2.81804672289838e-17</v>
+        <v>2.82469714362555e-17</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.960796049560363e-17</v>
+        <v>2.967406598619778e-17</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>3.087966676307194e-17</v>
+        <v>3.094658159840966e-17</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>3.19516083900719e-17</v>
+        <v>3.202048490266929e-17</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>3.280868858514966e-17</v>
+        <v>3.288024815025833e-17</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>3.34372757586998e-17</v>
+        <v>3.351178975798028e-17</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>3.38237383211195e-17</v>
+        <v>3.390102814264137e-17</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>3.39544446828042e-17</v>
+        <v>3.403388172104597e-17</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>3.38157632541502e-17</v>
+        <v>3.389626890999936e-17</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>3.339406244555334e-17</v>
+        <v>3.347410812630638e-17</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>3.267574066563331e-17</v>
+        <v>3.275334804992844e-17</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>3.167104669962888e-17</v>
+        <v>3.174399837477267e-17</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>3.045693331238748e-17</v>
+        <v>3.052336187817369e-17</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.912192523485283e-17</v>
+        <v>2.918041550270328e-17</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>2.775454719796901e-17</v>
+        <v>2.780413619093369e-17</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.644332393267638e-17</v>
+        <v>2.648350088543337e-17</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.527678016992004e-17</v>
+        <v>2.530748652877553e-17</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.434344064064069e-17</v>
+        <v>2.4365070063529e-17</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.373183007578236e-17</v>
+        <v>2.374522843226593e-17</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.353047320628791e-17</v>
+        <v>2.353693857755729e-17</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.382789476309979e-17</v>
+        <v>2.382917744197365e-17</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.471261947716127e-17</v>
+        <v>2.471092196808639e-17</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.627317207941351e-17</v>
+        <v>2.62711490984648e-17</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.859807730080214e-17</v>
+        <v>2.859883577568261e-17</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>3.175767152154933e-17</v>
+        <v>3.176469220338046e-17</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>3.559469876559197e-17</v>
+        <v>3.561085535067912e-17</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.979701659311053e-17</v>
+        <v>3.982390819278683e-17</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>4.404951397232758e-17</v>
+        <v>4.408745231890723e-17</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.803707987148063e-17</v>
+        <v>4.808508931825888e-17</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.144460325879532e-17</v>
+        <v>5.150042078004856e-17</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>5.397931675841818e-17</v>
+        <v>5.403959488284349e-17</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>5.55527090282439e-17</v>
+        <v>5.561487096865023e-17</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>5.61857351711396e-17</v>
+        <v>5.624896903964193e-17</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>5.875532973762446e-17</v>
+        <v>5.882425939899388e-17</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>6.975545193446438e-17</v>
+        <v>6.984334317016009e-17</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>8.411644510598547e-17</v>
+        <v>8.422806554603827e-17</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>9.548506428975561e-17</v>
+        <v>9.561484382380146e-17</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>9.81435468713853e-17</v>
+        <v>9.827665857903993e-17</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>9.307305398532732e-17</v>
+        <v>9.319680874089786e-17</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>8.52706638063513e-17</v>
+        <v>8.538134119510653e-17</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>7.974554836819744e-17</v>
+        <v>7.984840709925104e-17</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>7.832867632214155e-17</v>
+        <v>7.843178576706174e-17</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>7.7644151588992e-17</v>
+        <v>7.774830910009699e-17</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>7.597557320804607e-17</v>
+        <v>7.607792382021116e-17</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>7.343624061783162e-17</v>
+        <v>7.353416466368017e-17</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>7.019675708893125e-17</v>
+        <v>7.028799195387611e-17</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>6.642772589193414e-17</v>
+        <v>6.651036601417759e-17</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>6.229975029743142e-17</v>
+        <v>6.237224716796529e-17</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>5.798343357600277e-17</v>
+        <v>5.804459573860835e-17</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.364367313599631e-17</v>
+        <v>5.369267820124603e-17</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.936352875822279e-17</v>
+        <v>4.940009571703234e-17</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.516482377860617e-17</v>
+        <v>4.518934193888211e-17</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.106790483316842e-17</v>
+        <v>4.108143692907963e-17</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.709311855793107e-17</v>
+        <v>3.709740074990889e-17</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>3.326081158890498e-17</v>
+        <v>3.325825346364309e-17</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.959133056211505e-17</v>
+        <v>2.958501513256955e-17</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.610502211357267e-17</v>
+        <v>2.609870581896202e-17</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.28222875932986e-17</v>
+        <v>2.282039698086649e-17</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.977904233896237e-17</v>
+        <v>1.978573318794907e-17</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.704796995451571e-17</v>
+        <v>1.706489739296178e-17</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.470708103996261e-17</v>
+        <v>1.473307647864777e-17</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.283438619530565e-17</v>
+        <v>1.286545732774877e-17</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.150213714890872e-17</v>
+        <v>1.153164162360627e-17</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.068578989012675e-17</v>
+        <v>1.070735441237231e-17</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.028044843928444e-17</v>
+        <v>1.029039197265862e-17</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.017878247862032e-17</v>
+        <v>1.017618965814719e-17</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.0273461690374e-17</v>
+        <v>1.026018282252111e-17</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.045715575678491e-17</v>
+        <v>1.043780681946331e-17</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.062253436009222e-17</v>
+        <v>1.060449700265644e-17</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.067198129019116e-17</v>
+        <v>1.066492162440382e-17</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.060684558868317e-17</v>
+        <v>1.061781173395601e-17</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.048626556119218e-17</v>
+        <v>1.051682493017315e-17</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.037010369603058e-17</v>
+        <v>1.041630712067026e-17</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.031822248151042e-17</v>
+        <v>1.037060421306207e-17</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.039017407030705e-17</v>
+        <v>1.043378639681637e-17</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.059784782593603e-17</v>
+        <v>1.061757778718104e-17</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.085455557206281e-17</v>
+        <v>1.084612114102152e-17</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.106582339318987e-17</v>
+        <v>1.103657390264047e-17</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.119860144511863e-17</v>
+        <v>1.115972138100881e-17</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.126477891668054e-17</v>
+        <v>1.122558406327254e-17</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.127727326738399e-17</v>
+        <v>1.124508019472915e-17</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.124900195673736e-17</v>
+        <v>1.122912802067611e-17</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.119288244424899e-17</v>
+        <v>1.118864578641087e-17</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.11218321894273e-17</v>
+        <v>1.113455173723093e-17</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.104869881168398e-17</v>
+        <v>1.10777054229387e-17</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.098160742927226e-17</v>
+        <v>1.102499747638681e-17</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.092103973736559e-17</v>
+        <v>1.097689479215925e-17</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.086678060699158e-17</v>
+        <v>1.093327863509195e-17</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.081861490917801e-17</v>
+        <v>1.089403027002104e-17</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.07763275149526e-17</v>
+        <v>1.085903096178257e-17</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.0739703295343e-17</v>
+        <v>1.082816197521252e-17</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.070852712137695e-17</v>
+        <v>1.080130457514698e-17</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.06825838640822e-17</v>
+        <v>1.0778340026422e-17</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.06616583944864e-17</v>
+        <v>1.075914959387361e-17</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.06455355836173e-17</v>
+        <v>1.074361454233786e-17</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.063400030250259e-17</v>
+        <v>1.073161613665078e-17</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.062683742216999e-17</v>
+        <v>1.072303564164844e-17</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.06238318136472e-17</v>
+        <v>1.071775432216686e-17</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.062476834796195e-17</v>
+        <v>1.071565344304211e-17</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.062943189614194e-17</v>
+        <v>1.071661426911022e-17</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.063760732921487e-17</v>
+        <v>1.072051806520723e-17</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.064907951820847e-17</v>
+        <v>1.07272460961692e-17</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.066363333415044e-17</v>
+        <v>1.073667962683217e-17</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.068105364806848e-17</v>
+        <v>1.074869992203218e-17</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.070112533099034e-17</v>
+        <v>1.076318824660528e-17</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.072363325394367e-17</v>
+        <v>1.07800258653875e-17</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.074836228795625e-17</v>
+        <v>1.079909404321492e-17</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.077509730405575e-17</v>
+        <v>1.082027404492356e-17</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.080362317326988e-17</v>
+        <v>1.084344713534947e-17</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.083372476662634e-17</v>
+        <v>1.086849457932868e-17</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.086518695515288e-17</v>
+        <v>1.089529764169726e-17</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.089787521750054e-17</v>
+        <v>1.092380449339461e-17</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.093210394306338e-17</v>
+        <v>1.095433591116742e-17</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.096834287597304e-17</v>
+        <v>1.09873416196174e-17</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.100706191048314e-17</v>
+        <v>1.102327146795082e-17</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.10487309408474e-17</v>
+        <v>1.106257530537404e-17</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.109381986131947e-17</v>
+        <v>1.110570298109336e-17</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.114279856615296e-17</v>
+        <v>1.115310434431503e-17</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.119613694960163e-17</v>
+        <v>1.120522924424544e-17</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.12543049059191e-17</v>
+        <v>1.126252753009087e-17</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.131777232935896e-17</v>
+        <v>1.132544905105756e-17</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.138700911417502e-17</v>
+        <v>1.139444365635193e-17</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.14624851546208e-17</v>
+        <v>1.146996119518017e-17</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.15446703449501e-17</v>
+        <v>1.155245151674873e-17</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.163403457941653e-17</v>
+        <v>1.164236447026383e-17</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.173104775227365e-17</v>
+        <v>1.174014990493171e-17</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.183617975777532e-17</v>
+        <v>1.184625766995884e-17</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.19499004901751e-17</v>
+        <v>1.196113761455145e-17</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.207267984372656e-17</v>
+        <v>1.208523958791573e-17</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.220498771268357e-17</v>
+        <v>1.221901343925821e-17</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.23472939912997e-17</v>
+        <v>1.236290901778509e-17</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.250006857382846e-17</v>
+        <v>1.251737617270254e-17</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.266378135452381e-17</v>
+        <v>1.268286475321715e-17</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.28389022276391e-17</v>
+        <v>1.285982460853492e-17</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.302590108742831e-17</v>
+        <v>1.304870558786247e-17</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.322524782814497e-17</v>
+        <v>1.324995754040597e-17</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.343741234404254e-17</v>
+        <v>1.346403031537152e-17</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.366286452937507e-17</v>
+        <v>1.369137376196582e-17</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.390207427839603e-17</v>
+        <v>1.393243772939499e-17</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.415551148535886e-17</v>
+        <v>1.418767206686509e-17</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.442364604451767e-17</v>
+        <v>1.445752662358291e-17</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.470694785012592e-17</v>
+        <v>1.474245124875451e-17</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.500588679643699e-17</v>
+        <v>1.504289579158594e-17</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.532093277770508e-17</v>
+        <v>1.535931010128404e-17</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.565255568818329e-17</v>
+        <v>1.569214402705455e-17</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.600122542212589e-17</v>
+        <v>1.604184741810438e-17</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.636821637114043e-17</v>
+        <v>1.640967805949014e-17</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.675860422157062e-17</v>
+        <v>1.68007112780914e-17</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.717858631246312e-17</v>
+        <v>1.722114884753851e-17</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.763436014544066e-17</v>
+        <v>1.767719270473275e-17</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.81321232221243e-17</v>
+        <v>1.817504478657374e-17</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.867807304413692e-17</v>
+        <v>1.87209070299629e-17</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.92784071131e-17</v>
+        <v>1.932098137180027e-17</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.993932293063487e-17</v>
+        <v>1.998146974898572e-17</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.066701799836464e-17</v>
+        <v>2.070857409842094e-17</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.146768981791072e-17</v>
+        <v>2.150849635700587e-17</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.234753589089419e-17</v>
+        <v>2.238743846164016e-17</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.331204355567141e-17</v>
+        <v>2.33508918624321e-17</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.435401491314816e-17</v>
+        <v>2.43916569930701e-17</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.545531347641766e-17</v>
+        <v>2.549159071617575e-17</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>2.659744433025371e-17</v>
+        <v>2.663219130276328e-17</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>2.776191255942614e-17</v>
+        <v>2.779495702384294e-17</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>2.893022324870889e-17</v>
+        <v>2.89613861504291e-17</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.008388148287277e-17</v>
+        <v>3.011297695353297e-17</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.120439234668861e-17</v>
+        <v>3.123122770416586e-17</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.227326092493029e-17</v>
+        <v>3.229763667334203e-17</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.327199230236861e-17</v>
+        <v>3.329370213207273e-17</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>3.418209156377464e-17</v>
+        <v>3.420092235136944e-17</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>3.498506379392187e-17</v>
+        <v>3.500079560224608e-17</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>3.566241407758126e-17</v>
+        <v>3.567482015571405e-17</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>3.619564749952426e-17</v>
+        <v>3.62044942827852e-17</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>3.656626914452365e-17</v>
+        <v>3.657131625447277e-17</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>3.676581416002116e-17</v>
+        <v>3.676684595419737e-17</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>3.683209266902012e-17</v>
+        <v>3.68290637996905e-17</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>3.681625118217671e-17</v>
+        <v>3.680932854617835e-17</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>3.67694374549923e-17</v>
+        <v>3.675900019764794e-17</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>3.674279924296803e-17</v>
+        <v>3.672943875808614e-17</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>3.678748430160527e-17</v>
+        <v>3.677200423147998e-17</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>3.69546403864051e-17</v>
+        <v>3.693805662181625e-17</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>3.729541525286911e-17</v>
+        <v>3.727895593308217e-17</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>3.786091031554615e-17</v>
+        <v>3.784601557701555e-17</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>3.868787172580049e-17</v>
+        <v>3.867611585674474e-17</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>3.977843985947639e-17</v>
+        <v>3.977134364039276e-17</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>4.112964532239039e-17</v>
+        <v>4.11286483168996e-17</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>4.273851872035807e-17</v>
+        <v>4.274497927520424e-17</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>4.46020906591995e-17</v>
+        <v>4.461728590425016e-17</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>4.671739174473054e-17</v>
+        <v>4.674251759297661e-17</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>4.908145258276611e-17</v>
+        <v>4.911762373032193e-17</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>5.169130377912764e-17</v>
+        <v>5.173955370523097e-17</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>5.45410710686092e-17</v>
+        <v>5.460231819093371e-17</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>5.758943338570511e-17</v>
+        <v>5.766406806925996e-17</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>6.077137807786221e-17</v>
+        <v>6.085898660402391e-17</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>6.4021458970209e-17</v>
+        <v>6.412081848574775e-17</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>6.727422988788286e-17</v>
+        <v>6.738330840496246e-17</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>7.046424465601231e-17</v>
+        <v>7.058020105219024e-17</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>7.35260570997262e-17</v>
+        <v>7.364524111795349e-17</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>7.63942210441615e-17</v>
+        <v>7.651217329278288e-17</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>7.90032903144469e-17</v>
+        <v>7.911474226720068e-17</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>8.128888757562627e-17</v>
+        <v>8.138789940308762e-17</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>8.320185170245995e-17</v>
+        <v>8.328377446686187e-17</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>8.470435003714766e-17</v>
+        <v>8.476728654633724e-17</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>8.575881993348978e-17</v>
+        <v>8.580365956006924e-17</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>8.632769874528246e-17</v>
+        <v>8.635811742660917e-17</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>8.637342382632351e-17</v>
+        <v>8.639588406451002e-17</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>8.585844255265941e-17</v>
+        <v>8.588219238741486e-17</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>8.476146343993211e-17</v>
+        <v>8.479686987967266e-17</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>8.311052373434957e-17</v>
+        <v>8.316401716170963e-17</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>8.094297936702808e-17</v>
+        <v>8.101609848707704e-17</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>7.829618627149335e-17</v>
+        <v>7.838557811212034e-17</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>7.52140237868583e-17</v>
+        <v>7.53124872463748e-17</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>7.176590561392319e-17</v>
+        <v>7.186647618668419e-17</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>6.802749221266926e-17</v>
+        <v>6.812444128161619e-17</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>6.407444404306498e-17</v>
+        <v>6.416327887972548e-17</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>5.998242156508869e-17</v>
+        <v>6.005988532957683e-17</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>5.58270852387157e-17</v>
+        <v>5.589115697973186e-17</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>5.168409552392482e-17</v>
+        <v>5.173399017875573e-17</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>4.762911288068374e-17</v>
+        <v>4.766528127520245e-17</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>4.373779776897483e-17</v>
+        <v>4.376192661764077e-17</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>4.007649967041261e-17</v>
+        <v>4.009132925201089e-17</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>3.665795446163956e-17</v>
+        <v>3.666622877677102e-17</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>3.347574753109925e-17</v>
+        <v>3.347983930414381e-17</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>3.052344036667716e-17</v>
+        <v>3.052535057778184e-17</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>2.779459445626748e-17</v>
+        <v>2.779595234134639e-17</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>2.528277128776358e-17</v>
+        <v>2.52848343384979e-17</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.298153234905215e-17</v>
+        <v>2.298518631289015e-17</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.088443912802676e-17</v>
+        <v>2.089019800818379e-17</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.89850462493382e-17</v>
+        <v>1.899305361094321e-17</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.72762428845532e-17</v>
+        <v>1.728639849730546e-17</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.57497062125729e-17</v>
+        <v>1.576189670557981e-17</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.439698476532481e-17</v>
+        <v>1.441110810996075e-17</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.320962707474065e-17</v>
+        <v>1.322559258464691e-17</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.217918167275152e-17</v>
+        <v>1.219691000383636e-17</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.129719709128583e-17</v>
+        <v>1.131662024172445e-17</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.055522186227484e-17</v>
+        <v>1.057628317250938e-17</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>9.944804517649285e-18</v>
+        <v>9.967458670388849e-18</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>9.457202499982172e-18</v>
+        <v>9.481411258210639e-18</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>9.076771331441585e-18</v>
+        <v>9.102402483775474e-18</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>8.780847694148363e-18</v>
+        <v>8.807572288312838e-18</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>8.546453794869845e-18</v>
+        <v>8.573741533299889e-18</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>8.350611840374359e-18</v>
+        <v>8.377731080214762e-18</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>8.17034403742942e-18</v>
+        <v>8.196361790534786e-18</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>7.982672592803079e-18</v>
+        <v>8.006454525737828e-18</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>7.764619713263407e-18</v>
+        <v>7.784830147301772e-18</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>7.493207605577888e-18</v>
+        <v>7.508309516703914e-18</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>7.15936574224756e-18</v>
+        <v>7.168015662174094e-18</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>6.814091999915016e-18</v>
+        <v>6.816845676596711e-18</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>6.524598350055606e-18</v>
+        <v>6.52437115181829e-18</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>6.356867336769661e-18</v>
+        <v>6.358870407547219e-18</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>6.297509265369294e-18</v>
+        <v>6.305128067986583e-18</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>6.226617153854321e-18</v>
+        <v>6.236002816931275e-18</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>6.139941946699773e-18</v>
+        <v>6.1467995790157e-18</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>6.083240709503343e-18</v>
+        <v>6.085734368998424e-18</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>6.102391422917119e-18</v>
+        <v>6.10115114092218e-18</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>6.241000767930943e-18</v>
+        <v>6.23903765238127e-18</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>6.490199983541307e-18</v>
+        <v>6.490944788500017e-18</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>6.788513671223531e-18</v>
+        <v>6.793850462569964e-18</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>7.072168893632815e-18</v>
+        <v>7.082349171507421e-18</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>7.277392713425322e-18</v>
+        <v>7.291035412229682e-18</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>7.340446377513938e-18</v>
+        <v>7.354538686931777e-18</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>7.233119925781769e-18</v>
+        <v>7.243870604218353e-18</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>7.029918972815402e-18</v>
+        <v>7.035225320604405e-18</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>6.823802850356434e-18</v>
+        <v>6.823693922251509e-18</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>6.703593794413018e-18</v>
+        <v>6.700145063858759e-18</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>6.680493728480811e-18</v>
+        <v>6.676226016140432e-18</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>6.696731320049941e-18</v>
+        <v>6.693188084865199e-18</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>6.692135118493022e-18</v>
+        <v>6.689832950531729e-18</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>6.61848849447402e-18</v>
+        <v>6.617128489857468e-18</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>6.478181765448451e-18</v>
+        <v>6.477544315110226e-18</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>6.286994053271581e-18</v>
+        <v>6.287175572348115e-18</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>6.060704565025146e-18</v>
+        <v>6.062117494362613e-18</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>5.815092507791004e-18</v>
+        <v>5.818465313945317e-18</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>5.565936393822752e-18</v>
+        <v>5.572313498430462e-18</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>5.326523402309852e-18</v>
+        <v>5.337011938519683e-18</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>5.102051675120785e-18</v>
+        <v>5.116999238370667e-18</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>4.896080494901651e-18</v>
+        <v>4.914908553166691e-18</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>4.712169144299168e-18</v>
+        <v>4.733373038091633e-18</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>4.553876905959977e-18</v>
+        <v>4.575025848329302e-18</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>4.424763062530295e-18</v>
+        <v>4.442500139063081e-18</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>4.328386724225822e-18</v>
+        <v>4.338428950330098e-18</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>4.260266994584734e-18</v>
+        <v>4.260075504150341e-18</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.197288976871876e-18</v>
+        <v>4.191944134136479e-18</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>4.137067281309693e-18</v>
+        <v>4.131592360155763e-18</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>4.081455048784372e-18</v>
+        <v>4.079286545191891e-18</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>4.032305420181951e-18</v>
+        <v>4.03529305222843e-18</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.991471536388661e-18</v>
+        <v>3.999878244249118e-18</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.960352752550546e-18</v>
+        <v>3.973096260351685e-18</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.938196932401717e-18</v>
+        <v>3.953995042595152e-18</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.923614958308351e-18</v>
+        <v>3.941324633282748e-18</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.915217614853726e-18</v>
+        <v>3.933835028987154e-18</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.911615686621166e-18</v>
+        <v>3.930276226281086e-18</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.911419958193978e-18</v>
+        <v>3.929398221737246e-18</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.91324121415547e-18</v>
+        <v>3.929951011928336e-18</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.915690239088949e-18</v>
+        <v>3.930684593427061e-18</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.917377817577723e-18</v>
+        <v>3.930348962806126e-18</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.916914734205103e-18</v>
+        <v>3.927694116638229e-18</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.9129117735544e-18</v>
+        <v>3.921470051496085e-18</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.903982614229961e-18</v>
+        <v>3.910429438385421e-18</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.889297054313379e-18</v>
+        <v>3.893838871424183e-18</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.869238592339317e-18</v>
+        <v>3.872086553916206e-18</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.844350832568371e-18</v>
+        <v>3.84570864663906e-18</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.815177379261184e-18</v>
+        <v>3.815241310370371e-18</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.78226183667842e-18</v>
+        <v>3.781220705887781e-18</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.74614780908065e-18</v>
+        <v>3.744182993968835e-18</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.707378900728529e-18</v>
+        <v>3.704664335391173e-18</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.666498715882726e-18</v>
+        <v>3.663200890932443e-18</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.6240508588038e-18</v>
+        <v>3.620328821370175e-18</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.580578933752455e-18</v>
+        <v>3.576584287482059e-18</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.536626544989242e-18</v>
+        <v>3.532503450045622e-18</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>3.49273729677483e-18</v>
+        <v>3.488622469838513e-18</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.449454793369888e-18</v>
+        <v>3.445477507638378e-18</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.407322639034968e-18</v>
+        <v>3.403604724222749e-18</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.366884438030739e-18</v>
+        <v>3.363540280369273e-18</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.328683794617866e-18</v>
+        <v>3.325820336855593e-18</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.29326431305691e-18</v>
+        <v>3.29098105445925e-18</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>3.261169597608533e-18</v>
+        <v>3.259558593957886e-18</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>3.232893978042043e-18</v>
+        <v>3.232035611795651e-18</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>3.208704509535273e-18</v>
+        <v>3.208647980021754e-18</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>3.188802764004214e-18</v>
+        <v>3.189560466181152e-18</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.173390307284461e-18</v>
+        <v>3.174937831216456e-18</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.162668705211663e-18</v>
+        <v>3.164944836070334e-18</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.156839523621451e-18</v>
+        <v>3.159746241685433e-18</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.156104328349452e-18</v>
+        <v>3.159506809004397e-18</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.160664685231296e-18</v>
+        <v>3.164391298969874e-18</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.170722160102602e-18</v>
+        <v>3.1745644725245e-18</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.18647831879902e-18</v>
+        <v>3.190191090610942e-18</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.208134727156173e-18</v>
+        <v>3.211435914171839e-18</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.235892951009663e-18</v>
+        <v>3.238463704149812e-18</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.269954556195169e-18</v>
+        <v>3.271439221487557e-18</v>
       </c>
     </row>
   </sheetData>
